--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DaichiBox\MyProjects\StampRegister\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF3EF14A-44AB-4AD2-8DAB-3DADA20B7373}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2895F98-BE24-4E32-852F-9413F1975A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="0" yWindow="0" windowWidth="21390" windowHeight="10770" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -1521,7 +1521,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
         <x:v>21</x:v>
@@ -1560,7 +1560,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
         <x:v>25</x:v>
@@ -1599,7 +1599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
         <x:v>29</x:v>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2895F98-BE24-4E32-852F-9413F1975A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AA5E2-33F4-4236-98B0-F7316A9CD364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="0" yWindow="0" windowWidth="21390" windowHeight="10770" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:r>
       <x:rPr>
@@ -252,118 +252,7 @@
     <x:t>くん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>あえ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>;resjklksg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ｆｈっｇ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>akrjghlkre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969717</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ｇｓｄｊ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>;sejrglk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>んっｂｖ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gre;kjegrs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969728</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ｂｍんｖ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grlkjdfgkj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ｂんｍｂ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rkjgerlkjh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mんｂ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rkjerglkj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>れてｓぅ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kjshrg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ｒｔｓく</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kljhs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5969748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/5970027</x:t>
+    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/2403013</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,7 +262,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="21" x14ac:knownFonts="1">
+  <x:fonts count="22" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -538,6 +427,15 @@
       <x:color theme="1"/>
       <x:name val="游ゴシック"/>
       <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="游ゴシック"/>
+      <x:family val="2"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -880,7 +778,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="45">
+  <x:cellStyleXfs count="47">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -1005,6 +903,9 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1013,11 +914,14 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -1029,6 +933,9 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="center" shrinkToFit="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1039,7 +946,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="42">
+  <x:cellStyles count="43">
     <x:cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <x:cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <x:cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1067,6 +974,7 @@
     <x:cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <x:cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <x:cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <x:cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <x:cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <x:cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <x:cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1395,7 +1303,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M11"/>
+  <x:dimension ref="A1:M2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1413,43 +1321,43 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="5" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="5" t="s">
+      <x:c r="B1" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="5" t="s">
+      <x:c r="C1" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="5" t="s">
+      <x:c r="D1" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="5" t="s">
+      <x:c r="E1" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="5" t="s">
+      <x:c r="F1" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="5" t="s">
+      <x:c r="G1" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="5" t="s">
+      <x:c r="H1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="5" t="s">
+      <x:c r="I1" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="5" t="s">
+      <x:c r="J1" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="5" t="s">
+      <x:c r="K1" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="5" t="s">
+      <x:c r="L1" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="5" t="s">
+      <x:c r="M1" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
@@ -1484,370 +1392,20 @@
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s">
+      <x:c r="K2" s="4" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="L2" s="1" t="s"/>
       <x:c r="M2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A3" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A4" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A5" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A6" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="M6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A7" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A8" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L8" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="M8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A9" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K9" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L9" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A10" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K10" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="L10" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M10" s="2" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A11" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K11" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="L11" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="M11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>
+  <x:hyperlinks>
+    <x:hyperlink ref="K2" r:id="rId7"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId2"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C16D6-4B53-4360-9BD4-4CDED3FD9F9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D86A3-3CF6-41FD-8EE2-C327F904BAC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:r>
       <x:rPr>
@@ -240,16 +240,22 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>かすみ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kasumi</x:t>
+    <x:t>ぼぼぼ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ljkhdfr</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
   </x:si>
   <x:si>
     <x:t>ちゃん</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11844886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11844890</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1356,7 +1362,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
@@ -1367,8 +1373,12 @@
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="L2" s="1" t="s"/>
+      <x:c r="K2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D86A3-3CF6-41FD-8EE2-C327F904BAC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D902C201-4CD3-4B9B-B5EE-8D11E392EF5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -252,7 +252,7 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11844886</x:t>
+    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11855618</x:t>
   </x:si>
   <x:si>
     <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11844890</x:t>
@@ -1362,11 +1362,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D902C201-4CD3-4B9B-B5EE-8D11E392EF5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C7066-D7ED-4FE1-A2BB-A100D27DC032}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -240,10 +240,10 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>ぼぼぼ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ljkhdfr</x:t>
+    <x:t>ぽぽぽ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gfdfgds</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -252,10 +252,10 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11855618</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/11844890</x:t>
+    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/13277074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/13277076</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1362,10 +1362,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="1" t="n">

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\registicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C7066-D7ED-4FE1-A2BB-A100D27DC032}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE683D7-F1C4-4710-A81C-21934D40D2B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="3732" yWindow="3432" windowWidth="17280" windowHeight="9072" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,10 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/13277074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/s6Hsot0EkqxIZdK2/sticker/13277076</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/15611489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/15611494</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1295,16 +1295,16 @@
       <x:selection pane="bottomLeft" activeCell="E2" sqref="E2 E2:H4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <x:sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <x:cols>
-    <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="17.398438" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="7.097656" style="2" customWidth="1"/>
     <x:col min="5" max="10" width="9" style="1" customWidth="1"/>
     <x:col min="11" max="12" width="47.5" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
+    <x:col min="13" max="13" width="7.097656" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1345,7 +1345,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1367,7 +1367,6 @@
       <x:c r="G2" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE575DA0-4096-4D9F-88FF-1747FCE6755A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16600FE7-D0B7-4FC2-A989-A851C8652CAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -229,19 +229,14 @@
     <t>ぽぽぽ</t>
   </si>
   <si>
-    <t>gfdfgds</t>
-  </si>
-  <si>
     <t>女</t>
   </si>
   <si>
     <t>ちゃん</t>
   </si>
   <si>
-    <t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/15611489</t>
-  </si>
-  <si>
-    <t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/15611494</t>
+    <t>hgfjytm</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1307,13 +1302,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -1330,12 +1325,6 @@
       </c>
       <c r="J2" s="1">
         <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDAAE9C-11DA-412D-A690-747B3180F78F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F5D4F-9507-4ED6-8805-7D5F5D58C4C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:r>
       <x:rPr>
@@ -243,19 +243,13 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>grfsdfeiu</x:t>
+    <x:t>yrtrjghfj</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
   </x:si>
   <x:si>
     <x:t>ちゃん</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17131609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17131612</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1295,16 +1289,16 @@
       <x:selection pane="bottomLeft" activeCell="E2" sqref="E2 E2:H4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <x:cols>
-    <x:col min="1" max="2" width="17.398438" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="7.097656" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
     <x:col min="5" max="10" width="9" style="1" customWidth="1"/>
     <x:col min="11" max="12" width="47.5" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="7.097656" style="2" customWidth="1"/>
+    <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1345,7 +1339,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1362,23 +1356,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="K2" s="1" t="s"/>
+      <x:c r="L2" s="1" t="s"/>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F5D4F-9507-4ED6-8805-7D5F5D58C4C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD6C5D3-36CB-484A-887E-AA3F4D908BED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:r>
       <x:rPr>
@@ -243,13 +243,19 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>yrtrjghfj</x:t>
+    <x:t>nnfghf</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
   </x:si>
   <x:si>
     <x:t>ちゃん</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17131609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17131612</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -259,7 +265,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="21" x14ac:knownFonts="1">
+  <x:fonts count="22" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -424,6 +430,15 @@
       <x:color theme="1"/>
       <x:name val="游ゴシック"/>
       <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="游ゴシック"/>
+      <x:family val="2"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -766,7 +781,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="45">
+  <x:cellStyleXfs count="47">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -891,6 +906,9 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -899,11 +917,14 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -915,17 +936,24 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="42">
+  <x:cellStyles count="43">
     <x:cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <x:cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <x:cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -953,6 +981,7 @@
     <x:cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <x:cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <x:cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <x:cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <x:cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <x:cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <x:cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1294,48 +1323,48 @@
     <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
     <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
     <x:col min="5" max="10" width="9" style="1" customWidth="1"/>
-    <x:col min="11" max="12" width="47.5" style="1" customWidth="1"/>
+    <x:col min="11" max="12" width="60" style="1" bestFit="1" customWidth="1"/>
     <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="5" t="s">
+      <x:c r="A1" s="7" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="5" t="s">
+      <x:c r="B1" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="5" t="s">
+      <x:c r="C1" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="5" t="s">
+      <x:c r="D1" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="5" t="s">
+      <x:c r="E1" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="5" t="s">
+      <x:c r="F1" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="5" t="s">
+      <x:c r="G1" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="5" t="s">
+      <x:c r="H1" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="5" t="s">
+      <x:c r="I1" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="5" t="s">
+      <x:c r="J1" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="5" t="s">
+      <x:c r="K1" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="5" t="s">
+      <x:c r="L1" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="5" t="s">
+      <x:c r="M1" s="7" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
@@ -1356,27 +1385,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="L2" s="1" t="s"/>
+      <x:c r="K2" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L2" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>
+  <x:hyperlinks>
+    <x:hyperlink ref="K2" r:id="rId7"/>
+    <x:hyperlink ref="L2" r:id="rId8"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId3"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD6C5D3-36CB-484A-887E-AA3F4D908BED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839BA94-4342-4EDF-9833-F36BC71B8B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>nnfghf</x:t>
+    <x:t>grthyrhd</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -252,10 +252,10 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17131609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17131612</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17746022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17746026</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -781,7 +781,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="47">
+  <x:cellStyleXfs count="46">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -906,9 +906,6 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -924,7 +921,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -934,26 +931,22 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment shrinkToFit="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="center" shrinkToFit="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
-      <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="43">
+  <x:cellStyles count="42">
     <x:cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <x:cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <x:cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -981,7 +974,6 @@
     <x:cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <x:cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <x:cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <x:cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <x:cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <x:cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <x:cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1328,43 +1320,43 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="7" t="s">
+      <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="7" t="s">
+      <x:c r="B1" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="7" t="s">
+      <x:c r="C1" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="7" t="s">
+      <x:c r="D1" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="7" t="s">
+      <x:c r="E1" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="7" t="s">
+      <x:c r="F1" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="7" t="s">
+      <x:c r="G1" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="7" t="s">
+      <x:c r="H1" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="7" t="s">
+      <x:c r="I1" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="7" t="s">
+      <x:c r="J1" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="7" t="s">
+      <x:c r="K1" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="7" t="s">
+      <x:c r="L1" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="7" t="s">
+      <x:c r="M1" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
@@ -1382,7 +1374,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>2</x:v>
@@ -1390,30 +1382,25 @@
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="6" t="s">
+      <x:c r="K2" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L2" s="6" t="s">
+      <x:c r="L2" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>
-  <x:hyperlinks>
-    <x:hyperlink ref="K2" r:id="rId7"/>
-    <x:hyperlink ref="L2" r:id="rId8"/>
-  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839BA94-4342-4EDF-9833-F36BC71B8B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E5FEF-0336-454C-957C-7C02AC11B06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>grthyrhd</x:t>
+    <x:t>fewgsklj</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -252,10 +252,10 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17746022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/17746026</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18379482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfgrerej</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1302,7 +1302,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M2"/>
+  <x:dimension ref="A1:M3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1310,16 +1310,16 @@
       <x:selection pane="bottomLeft" activeCell="E2" sqref="E2 E2:H4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <x:sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <x:cols>
-    <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="17.398438" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="7.097656" style="2" customWidth="1"/>
     <x:col min="5" max="10" width="9" style="1" customWidth="1"/>
     <x:col min="11" max="12" width="60" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
+    <x:col min="13" max="13" width="7.097656" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1360,7 +1360,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1377,13 +1377,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
@@ -1391,10 +1391,40 @@
       <x:c r="K2" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L2" s="3" t="s">
+      <x:c r="L2" s="3" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <x:c r="A3" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="M2" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E5FEF-0336-454C-957C-7C02AC11B06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A5F4D-EC0C-4D04-9BDA-A868DF4CDDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:r>
       <x:rPr>
@@ -252,10 +262,19 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18379482</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895066</x:t>
   </x:si>
   <x:si>
     <x:t>dfgrerej</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895071</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -781,7 +800,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="46">
+  <x:cellStyleXfs count="45">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -907,17 +926,14 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -1310,16 +1326,16 @@
       <x:selection pane="bottomLeft" activeCell="E2" sqref="E2 E2:H4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <x:cols>
-    <x:col min="1" max="2" width="17.398438" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="7.097656" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
     <x:col min="5" max="10" width="9" style="1" customWidth="1"/>
     <x:col min="11" max="12" width="60" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="7.097656" style="2" customWidth="1"/>
+    <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1360,7 +1376,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1377,13 +1393,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
@@ -1391,15 +1408,17 @@
       <x:c r="K2" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L2" s="3" t="s"/>
+      <x:c r="L2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A3" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
@@ -1411,7 +1430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
@@ -1422,8 +1441,12 @@
       <x:c r="J3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K3" s="1" t="s"/>
-      <x:c r="L3" s="1" t="s"/>
+      <x:c r="K3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="M3" s="2" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A5F4D-EC0C-4D04-9BDA-A868DF4CDDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D917F9-8280-4A2F-B2BA-CD7C3D077668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -262,19 +262,19 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895066</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994815</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994818</x:t>
   </x:si>
   <x:si>
     <x:t>dfgrerej</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18895071</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994823</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1433,7 +1433,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
         <x:v>0</x:v>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1390,7 +1390,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>2</x:v>
@@ -1427,7 +1427,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>2</x:v>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D917F9-8280-4A2F-B2BA-CD7C3D077668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA76178-7C28-401C-86DA-DCAA49F9A9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -253,7 +253,7 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>fewgsklj</x:t>
+    <x:t>gdfghsr</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -262,19 +262,19 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994818</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dfgrerej</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/18994823</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sergfbxb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163624</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1389,7 +1389,7 @@
       <x:c r="D2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="n">
+      <x:c r="E2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
@@ -1427,13 +1427,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
         <x:v>0</x:v>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA76178-7C28-401C-86DA-DCAA49F9A9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B58F41-7DA5-4043-9A05-E5E6CF3FD9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -16,7 +16,7 @@
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="191029"/>
+  <x:calcPr calcId="191028"/>
   <x:extLst>
     <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </x:ext>
   </x:extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:r>
       <x:rPr>
@@ -253,7 +254,7 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>gdfghsr</x:t>
+    <x:t>esrgsdfg</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -262,19 +263,7 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sergfbxb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/20163624</x:t>
+    <x:t>hrsrfgesr</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -284,7 +273,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="22" x14ac:knownFonts="1">
+  <x:fonts count="22">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -941,16 +930,16 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center" shrinkToFit="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment shrinkToFit="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center" shrinkToFit="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1019,7 +1008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1322,11 +1311,11 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="E2" sqref="E2 E2:H4"/>
-      <x:selection pane="bottomLeft" activeCell="E2" sqref="E2 E2:H4"/>
+      <x:selection activeCell="A2" sqref="A2"/>
+      <x:selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <x:sheetFormatPr defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
     <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
@@ -1335,7 +1324,7 @@
     <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1376,7 +1365,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1390,35 +1379,31 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L2" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="K2" s="3" t="s"/>
+      <x:c r="L2" s="3" t="s"/>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <x:row r="3" spans="1:13">
       <x:c r="A3" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
@@ -1430,7 +1415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
@@ -1441,12 +1426,8 @@
       <x:c r="J3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
       <x:c r="M3" s="2" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B58F41-7DA5-4043-9A05-E5E6CF3FD9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA5099-770D-4CD8-93FA-F040EAC268B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -254,7 +254,7 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>esrgsdfg</x:t>
+    <x:t>nfgjkh</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -263,7 +263,7 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>hrsrfgesr</x:t>
+    <x:t>njew</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -273,7 +273,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="22">
+  <x:fonts count="22" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -939,7 +939,7 @@
     <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center" shrinkToFit="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1315,7 +1315,7 @@
       <x:selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <x:cols>
     <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
     <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
@@ -1324,7 +1324,7 @@
     <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1365,7 +1365,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
+    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1398,7 +1398,7 @@
       <x:c r="L2" s="3" t="s"/>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:13">
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A3" s="1" t="s">
         <x:v>13</x:v>
       </x:c>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA5099-770D-4CD8-93FA-F040EAC268B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A95C9-9099-4FDF-89E5-3CDAF615217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:r>
       <x:rPr>
@@ -263,7 +263,10 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>njew</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/27858826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/27858827</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1307,7 +1310,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1324,7 +1327,7 @@
     <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <x:row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1365,7 +1368,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <x:row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1379,13 +1382,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
@@ -1394,41 +1397,13 @@
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="3" t="s"/>
-      <x:c r="L2" s="3" t="s"/>
+      <x:c r="K2" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="M2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A3" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s"/>
-      <x:c r="L3" s="1" t="s"/>
-      <x:c r="M3" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A95C9-9099-4FDF-89E5-3CDAF615217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{306D482D-9EEC-4173-A88B-272E64206826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -25,6 +25,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </x:ext>
   </x:extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
     <x:r>
       <x:rPr>
@@ -254,7 +256,7 @@
     <x:t>ぽぽぽ</x:t>
   </x:si>
   <x:si>
-    <x:t>nfgjkh</x:t>
+    <x:t>dasvdbewqw</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -263,10 +265,73 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/27858826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/27858827</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ffergaareg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>segseraerga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>graegaefefr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gargfaehtdh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gartjtjdcyh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hsrthjdtyd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>garethdjyn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714819</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -276,7 +341,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="22" x14ac:knownFonts="1">
+  <x:fonts count="22">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -942,7 +1007,7 @@
     <x:xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center" shrinkToFit="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1011,7 +1076,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1310,15 +1375,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M2"/>
+  <x:dimension ref="A1:M9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="A2" sqref="A2"/>
-      <x:selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <x:selection pane="bottomLeft"/>
+      <x:selection activeCell="D9" sqref="D9 C2:D9"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <x:sheetFormatPr defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
     <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
@@ -1327,7 +1392,7 @@
     <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <x:row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1368,7 +1433,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <x:row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1392,7 +1457,7 @@
       </x:c>
       <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
@@ -1404,6 +1469,258 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J6" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J9" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306D482D-9EEC-4173-A88B-272E64206826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DC6CD-D8D8-4EA4-A602-E00A5170DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="19440" yWindow="2760" windowWidth="28605" windowHeight="14895" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NameList" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:r>
       <x:rPr>
@@ -253,10 +253,10 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>ぽぽぽ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dasvdbewqw</x:t>
+    <x:t>ぽぽあ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jkfhdrhgre</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -265,73 +265,46 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ffergaareg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>segseraerga</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>graegaefefr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gargfaehtdh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gartjtjdcyh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28713325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hsrthjdtyd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714806</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>garethdjyn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/28714819</x:t>
+    <x:t>ぽぽい</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ncfnyhtdr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ぽぽう</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ndrtjdrtht</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ぽぽえ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngfcgerg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ぽぽお</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nftfggreer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ぽぽか</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ncntewger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ぽぽき</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fgjdrtwregr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ぽぽく</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngdnreger</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -341,7 +314,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="22">
+  <x:fonts count="22" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -1076,9 +1049,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1116,7 +1089,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1222,7 +1195,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1364,7 +1337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1379,11 +1352,11 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection pane="bottomLeft"/>
       <x:selection activeCell="D9" sqref="D9 C2:D9"/>
+      <x:selection pane="bottomLeft" activeCell="D9" sqref="D9 C2:D9"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <x:cols>
     <x:col min="1" max="2" width="17.375" style="1" customWidth="1"/>
     <x:col min="3" max="4" width="7.125" style="2" customWidth="1"/>
@@ -1392,7 +1365,7 @@
     <x:col min="13" max="13" width="7.125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <x:row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1433,7 +1406,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1">
+    <x:row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1447,35 +1420,31 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L2" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="K2" s="3" t="s"/>
+      <x:c r="L2" s="3" t="s"/>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:13">
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A3" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
@@ -1484,34 +1453,30 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
       <x:c r="M3" s="2" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:13">
+    <x:row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A4" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>15</x:v>
@@ -1520,13 +1485,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
         <x:v>0</x:v>
@@ -1534,20 +1499,16 @@
       <x:c r="J4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="L4" s="1" t="s"/>
       <x:c r="M4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:13">
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A5" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
@@ -1556,13 +1517,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
         <x:v>0</x:v>
@@ -1570,20 +1531,16 @@
       <x:c r="J5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="L5" s="1" t="s"/>
       <x:c r="M5" s="2" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:13">
+    <x:row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A6" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
         <x:v>15</x:v>
@@ -1592,13 +1549,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
         <x:v>0</x:v>
@@ -1606,20 +1563,16 @@
       <x:c r="J6" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="K6" s="1" t="s"/>
+      <x:c r="L6" s="1" t="s"/>
       <x:c r="M6" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:13">
+    <x:row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A7" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
         <x:v>15</x:v>
@@ -1628,13 +1581,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
         <x:v>0</x:v>
@@ -1642,20 +1595,16 @@
       <x:c r="J7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="K7" s="1" t="s"/>
+      <x:c r="L7" s="1" t="s"/>
       <x:c r="M7" s="2" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:13">
+    <x:row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A8" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
         <x:v>15</x:v>
@@ -1664,13 +1613,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>0</x:v>
@@ -1678,20 +1627,16 @@
       <x:c r="J8" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L8" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
+      <x:c r="K8" s="1" t="s"/>
+      <x:c r="L8" s="1" t="s"/>
       <x:c r="M8" s="2" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:13">
+    <x:row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A9" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
         <x:v>15</x:v>
@@ -1700,13 +1645,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
         <x:v>0</x:v>
@@ -1714,12 +1659,8 @@
       <x:c r="J9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K9" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="L9" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
+      <x:c r="K9" s="1" t="s"/>
+      <x:c r="L9" s="1" t="s"/>
       <x:c r="M9" s="2" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:r>
       <x:rPr>
@@ -265,46 +265,94 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093285</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽい</x:t>
   </x:si>
   <x:si>
     <x:t>ncfnyhtdr</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093298</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽう</x:t>
   </x:si>
   <x:si>
     <x:t>ndrtjdrtht</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093302</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽえ</x:t>
   </x:si>
   <x:si>
     <x:t>ngfcgerg</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093304</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽお</x:t>
   </x:si>
   <x:si>
     <x:t>nftfggreer</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093308</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽか</x:t>
   </x:si>
   <x:si>
     <x:t>ncntewger</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093314</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽき</x:t>
   </x:si>
   <x:si>
     <x:t>fgjdrtwregr</x:t>
   </x:si>
   <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093316</x:t>
+  </x:si>
+  <x:si>
     <x:t>ぽぽく</x:t>
   </x:si>
   <x:si>
     <x:t>ngdnreger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093318</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1423,7 +1471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
@@ -1435,16 +1483,20 @@
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K2" s="3" t="s"/>
-      <x:c r="L2" s="3" t="s"/>
+      <x:c r="K2" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A3" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
@@ -1456,7 +1508,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
@@ -1467,16 +1519,20 @@
       <x:c r="J3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K3" s="1" t="s"/>
-      <x:c r="L3" s="1" t="s"/>
+      <x:c r="K3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="M3" s="2" t="s"/>
     </x:row>
     <x:row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>15</x:v>
@@ -1488,7 +1544,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>0</x:v>
@@ -1499,16 +1555,20 @@
       <x:c r="J4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="L4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M4" s="2" t="s"/>
     </x:row>
     <x:row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
@@ -1520,7 +1580,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
@@ -1531,16 +1591,20 @@
       <x:c r="J5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="L5" s="1" t="s"/>
+      <x:c r="K5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="M5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
         <x:v>15</x:v>
@@ -1552,7 +1616,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>0</x:v>
@@ -1563,16 +1627,20 @@
       <x:c r="J6" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K6" s="1" t="s"/>
-      <x:c r="L6" s="1" t="s"/>
+      <x:c r="K6" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="M6" s="2" t="s"/>
     </x:row>
     <x:row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A7" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
         <x:v>15</x:v>
@@ -1584,7 +1652,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
@@ -1595,16 +1663,20 @@
       <x:c r="J7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K7" s="1" t="s"/>
-      <x:c r="L7" s="1" t="s"/>
+      <x:c r="K7" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="M7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A8" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
         <x:v>15</x:v>
@@ -1616,7 +1688,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>0</x:v>
@@ -1627,16 +1699,20 @@
       <x:c r="J8" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K8" s="1" t="s"/>
-      <x:c r="L8" s="1" t="s"/>
+      <x:c r="K8" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="M8" s="2" t="s"/>
     </x:row>
     <x:row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A9" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
         <x:v>15</x:v>
@@ -1648,7 +1724,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
@@ -1659,8 +1735,12 @@
       <x:c r="J9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K9" s="1" t="s"/>
-      <x:c r="L9" s="1" t="s"/>
+      <x:c r="K9" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="M9" s="2" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DC6CD-D8D8-4EA4-A602-E00A5170DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A84467-AEAF-462F-BCB8-7F35B867D074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="19440" yWindow="2760" windowWidth="28605" windowHeight="14895" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:r>
       <x:rPr>
@@ -256,7 +256,7 @@
     <x:t>ぽぽあ</x:t>
   </x:si>
   <x:si>
-    <x:t>jkfhdrhgre</x:t>
+    <x:t>vnnndfgn</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -265,94 +265,25 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093285</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093403</x:t>
   </x:si>
   <x:si>
     <x:t>ぽぽい</x:t>
   </x:si>
   <x:si>
-    <x:t>ncfnyhtdr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093298</x:t>
+    <x:t>vbnrthdh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093404</x:t>
   </x:si>
   <x:si>
     <x:t>ぽぽう</x:t>
   </x:si>
   <x:si>
-    <x:t>ndrtjdrtht</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ぽぽえ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ngfcgerg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ぽぽお</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nftfggreer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ぽぽか</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ncntewger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ぽぽき</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fgjdrtwregr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ぽぽく</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ngdnreger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093318</x:t>
+    <x:t>vbcsgz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093408</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1396,7 +1327,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M9"/>
+  <x:dimension ref="A1:M4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1468,17 +1399,17 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
@@ -1486,17 +1417,15 @@
       <x:c r="K2" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L2" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="L2" s="3" t="s"/>
       <x:c r="M2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A3" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
@@ -1505,34 +1434,32 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s"/>
       <x:c r="M3" s="2" t="s"/>
     </x:row>
     <x:row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="A4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>15</x:v>
@@ -1541,207 +1468,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s"/>
       <x:c r="M4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A5" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A6" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="M6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A7" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A8" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L8" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="M8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <x:c r="A9" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K9" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L9" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M9" s="2" t="s"/>
+    <x:row r="9" spans="1:13">
+      <x:c r="D9" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="18"/>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A84467-AEAF-462F-BCB8-7F35B867D074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3631C-08CB-490F-85DF-EAC6DF53D04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="19440" yWindow="2760" windowWidth="28605" windowHeight="14895" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:r>
       <x:rPr>
@@ -253,10 +253,10 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>ぽぽあ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vnnndfgn</x:t>
+    <x:t>abc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bgrtsgsr</x:t>
   </x:si>
   <x:si>
     <x:t>女</x:t>
@@ -265,25 +265,31 @@
     <x:t>ちゃん</x:t>
   </x:si>
   <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ぽぽい</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vbnrthdh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093404</x:t>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38097076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!-a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nhjydhdt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38097078</x:t>
   </x:si>
   <x:si>
     <x:t>ぽぽう</x:t>
   </x:si>
   <x:si>
-    <x:t>vbcsgz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38093408</x:t>
+    <x:t>awefrersg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://creator.line.me/my/j3efcHl928j7oSjH/sticker/38097081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>東京都</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xbsrfsrff</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1327,7 +1333,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M4"/>
+  <x:dimension ref="A1:M9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1409,7 +1415,7 @@
       </x:c>
       <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
         <x:v>0</x:v>
@@ -1443,7 +1449,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="1" t="n">
         <x:v>0</x:v>
@@ -1477,7 +1483,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="1" t="n">
         <x:v>0</x:v>
@@ -1488,7 +1494,39 @@
       <x:c r="L4" s="1" t="s"/>
       <x:c r="M4" s="2" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:13">
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <x:c r="A5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="L5" s="1" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <x:c r="D9" s="0" t="s"/>
     </x:row>
   </x:sheetData>

--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\registicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3631C-08CB-490F-85DF-EAC6DF53D04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACDD00D-0E8F-486D-A9DC-3FED8A90FF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="19440" yWindow="2760" windowWidth="28605" windowHeight="14895" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
